--- a/biology/Médecine/Centre_hospitalier_intercommunal_de_Verdun_-_Saint-Mihiel/Centre_hospitalier_intercommunal_de_Verdun_-_Saint-Mihiel.xlsx
+++ b/biology/Médecine/Centre_hospitalier_intercommunal_de_Verdun_-_Saint-Mihiel/Centre_hospitalier_intercommunal_de_Verdun_-_Saint-Mihiel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier de Verdun - Saint-Mihiel est un centre hospitalier situé dans la région Grand Est et dans le département de la Meuse.
@@ -512,12 +524,14 @@
           <t>Historique et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première mention écrite évoquant une activité de soins, un établissement charitable sur le site de Sainte-Catherine, remonte à l'année 1093[1].
-En 2014, les établissements hospitaliers de Verdun et de Saint-Mihiel fusionnent pour former le centre hospitalier de Verdun Saint-Mihiel (CHVSM), le 4e plus gros centre hospitalier de Lorraine après le CHRU de Nancy, le CHR de Metz-Thionville et le centre hospitalier d’Épinal. L'établissement compte 1 187 lits et 1 800 professionnels de la santé, répartis sur cinq sites à Verdun et un à Saint-Mihiel[2]. Il s'organise autour de huit pôles : « Anesthésie-réanimation » (SAMU/SMUR), « Chirurgie », « Médecine » (cardiologie, médecine interne...), « Mère-enfant » (maternité, pédiatrie...), « Rééducation, Dépendance, vieillissement » (gériatrie...), « Psychiatrie générale », « Médico-Technique et Hygiène » (imagerie médicale, laboratoire...) et « Secteurs médico-sociaux » (EHPAD, USLD...)[3].
-La ville compte trois foyers-logements d'accueil pour les personnes âgées : les résidences Glorieux, Mon repos et Souville. De plus, il existe l'EHPAD privé associatif Saint-Joseph[4].
-La ville accueille plusieurs professionnels de santé : médecins généralistes, pharmaciens, chirurgiens-dentistes, ophtalmologistes, opticiens, kinésithérapeutes[5]...
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première mention écrite évoquant une activité de soins, un établissement charitable sur le site de Sainte-Catherine, remonte à l'année 1093.
+En 2014, les établissements hospitaliers de Verdun et de Saint-Mihiel fusionnent pour former le centre hospitalier de Verdun Saint-Mihiel (CHVSM), le 4e plus gros centre hospitalier de Lorraine après le CHRU de Nancy, le CHR de Metz-Thionville et le centre hospitalier d’Épinal. L'établissement compte 1 187 lits et 1 800 professionnels de la santé, répartis sur cinq sites à Verdun et un à Saint-Mihiel. Il s'organise autour de huit pôles : « Anesthésie-réanimation » (SAMU/SMUR), « Chirurgie », « Médecine » (cardiologie, médecine interne...), « Mère-enfant » (maternité, pédiatrie...), « Rééducation, Dépendance, vieillissement » (gériatrie...), « Psychiatrie générale », « Médico-Technique et Hygiène » (imagerie médicale, laboratoire...) et « Secteurs médico-sociaux » (EHPAD, USLD...).
+La ville compte trois foyers-logements d'accueil pour les personnes âgées : les résidences Glorieux, Mon repos et Souville. De plus, il existe l'EHPAD privé associatif Saint-Joseph.
+La ville accueille plusieurs professionnels de santé : médecins généralistes, pharmaciens, chirurgiens-dentistes, ophtalmologistes, opticiens, kinésithérapeutes...
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le centre hospitalier de Verdun - Saint-Mihiel se compose de 5 établissements répartis dans les villes de Verdun ainsi que de Saint-Mihiel. 
 À Verdun, 5 établissements sont présents :
@@ -584,9 +600,11 @@
           <t>Chiffres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le centre hospitalier intercommunal de Verdun - Saint-Mihiel a une capacité, en 2018, de 1 187 lits et places dont[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le centre hospitalier intercommunal de Verdun - Saint-Mihiel a une capacité, en 2018, de 1 187 lits et places dont :
 Médecine : 251
 Chirurgie : 98
 Gynéco-obstétrique : 35
